--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_28.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1951084.508738953</v>
+        <v>1941886.392153239</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6933941.905492765</v>
+        <v>7709817.850552399</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095093</v>
+        <v>806345.8827095092</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10148381.47437521</v>
+        <v>10090166.13428897</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>118.8457639961992</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>36.10875537600893</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>27.60424748687867</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>132.997194893274</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3842786706245</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>62.40996811157408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231965</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325231</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984489</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>129.9448458992368</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>49.58595117973773</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>11.43714135353492</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>33.32338939159063</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>120.9327970537822</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>82.9591952916787</v>
+        <v>251.0364052149085</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1224,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0669836643703</v>
+        <v>135.275240877313</v>
       </c>
       <c r="H9" t="n">
-        <v>99.90681807664345</v>
+        <v>92.26024958059013</v>
       </c>
       <c r="I9" t="n">
-        <v>45.44580843958667</v>
+        <v>18.18624318344744</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.90078060183509</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>147.9721212459916</v>
+        <v>133.2658462320107</v>
       </c>
       <c r="T9" t="n">
-        <v>195.0194028815133</v>
+        <v>191.828123840699</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8053112726921</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>99.32764374521088</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>193.7981713870603</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>220.5367941620016</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2244489913895</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>261.9850470529562</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>132.5530137843319</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>84.1480272915116</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>176.7697821123584</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1661,10 +1661,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1768,19 +1768,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -1816,22 +1816,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>64.51710610988567</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>57.02303046035317</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1859,7 +1859,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -2005,13 +2005,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>181.137498521193</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2059,13 +2059,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>11.33442619224414</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.999294488322789</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2485,16 +2485,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>129.0614065745362</v>
+        <v>219.5122571603981</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2716,19 +2716,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>16.85908631810649</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,19 +2761,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785995</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2947,19 +2947,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>196.1998511342593</v>
+        <v>24.28294625218579</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247734</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>83.92159280918611</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3241,19 +3241,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>74.75724224607742</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3281,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3427,22 +3427,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>89.8683054686072</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3484,13 +3484,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>106.5867442799587</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417122</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>47.47945401168244</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3706,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3794,10 +3794,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>55.26280711493317</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3910,13 +3910,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>191.9102440245445</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4144,13 +4144,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4186,19 +4186,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>109.7811651255454</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>285.93190422908</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1328.4755035807</v>
+        <v>1663.420136195577</v>
       </c>
       <c r="C2" t="n">
-        <v>959.5129866402885</v>
+        <v>1663.420136195577</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>1305.154437588826</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>919.366184990582</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>508.3802802009745</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>90.41647209916135</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4361,19 +4361,19 @@
         <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W2" t="n">
-        <v>1838.661061815299</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X2" t="n">
-        <v>1838.661061815299</v>
+        <v>2050.019976259699</v>
       </c>
       <c r="Y2" t="n">
-        <v>1448.521729839487</v>
+        <v>2050.019976259699</v>
       </c>
     </row>
     <row r="3">
@@ -4413,19 +4413,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>229.739153672332</v>
+        <v>2476.356511874692</v>
       </c>
       <c r="C4" t="n">
-        <v>229.739153672332</v>
+        <v>2307.420328946786</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>2157.30368953445</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782189</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T4" t="n">
-        <v>484.4236418782189</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U4" t="n">
-        <v>484.4236418782189</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V4" t="n">
-        <v>229.739153672332</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W4" t="n">
-        <v>229.739153672332</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X4" t="n">
-        <v>229.739153672332</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y4" t="n">
-        <v>229.739153672332</v>
+        <v>2476.356511874692</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4541,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>760.2723052017247</v>
+        <v>1725.794660355681</v>
       </c>
       <c r="C5" t="n">
-        <v>760.2723052017247</v>
+        <v>1356.832143415269</v>
       </c>
       <c r="D5" t="n">
-        <v>402.0066065949742</v>
+        <v>998.5664448085188</v>
       </c>
       <c r="E5" t="n">
-        <v>402.0066065949742</v>
+        <v>998.5664448085188</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>587.5805400189113</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>170.4927582553387</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>170.4927582553387</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>1094.46325341956</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>1281.162666244967</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1475.49687913695</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2022.658083904027</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q5" t="n">
         <v>2697.149091018222</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2443.457387763373</v>
       </c>
       <c r="V5" t="n">
-        <v>1936.146930626913</v>
+        <v>2112.394500419803</v>
       </c>
       <c r="W5" t="n">
-        <v>1583.378275356799</v>
+        <v>2112.394500419803</v>
       </c>
       <c r="X5" t="n">
-        <v>1209.912517095719</v>
+        <v>2112.394500419803</v>
       </c>
       <c r="Y5" t="n">
-        <v>1146.872145265846</v>
+        <v>2112.394500419803</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>967.3646662469702</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>792.9116369658432</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>643.9772273045919</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>484.7397722991365</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>338.2052143260214</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>200.7638166852434</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>99.84783883004796</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,49 +4647,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>121.5508014837215</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>625.9123413498401</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1233.514064314702</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1432.170805967367</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2636.288039261394</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2615.176139663581</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2465.709350526216</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2268.720054686303</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167582</v>
+        <v>2040.581267197469</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1805.429158965726</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1551.191802237525</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1343.340302031992</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>1135.580003267038</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>359.2080756496231</v>
+        <v>185.2004019206037</v>
       </c>
       <c r="C7" t="n">
-        <v>190.2718927217162</v>
+        <v>185.2004019206037</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2718927217162</v>
+        <v>185.2004019206037</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>185.2004019206037</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>185.2004019206037</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>185.2004019206037</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4726,49 +4726,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>154.9909114159743</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>339.8239063167927</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>545.0935070360306</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>750.9168718721348</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>925.0117672607337</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>1050.459343859349</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="W7" t="n">
-        <v>409.2948950230955</v>
+        <v>633.9825319621511</v>
       </c>
       <c r="X7" t="n">
-        <v>359.2080756496231</v>
+        <v>405.9929810641338</v>
       </c>
       <c r="Y7" t="n">
-        <v>359.2080756496231</v>
+        <v>185.2004019206037</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1558.505482207785</v>
+        <v>860.8519094265325</v>
       </c>
       <c r="C8" t="n">
-        <v>1558.505482207785</v>
+        <v>491.8893924861208</v>
       </c>
       <c r="D8" t="n">
-        <v>1200.239783601035</v>
+        <v>491.8893924861208</v>
       </c>
       <c r="E8" t="n">
-        <v>1200.239783601035</v>
+        <v>106.1011398878766</v>
       </c>
       <c r="F8" t="n">
-        <v>789.2538788114275</v>
+        <v>99.1556391386731</v>
       </c>
       <c r="G8" t="n">
-        <v>372.1660970478549</v>
+        <v>87.60297110479944</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4802,52 +4802,52 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>199.514302137349</v>
       </c>
       <c r="K8" t="n">
-        <v>478.6443448337932</v>
+        <v>468.4264940665504</v>
       </c>
       <c r="L8" t="n">
-        <v>617.9730006750465</v>
+        <v>838.9376088552597</v>
       </c>
       <c r="M8" t="n">
-        <v>1249.690811658358</v>
+        <v>1282.872051350724</v>
       </c>
       <c r="N8" t="n">
-        <v>1794.077600226718</v>
+        <v>1738.603625623768</v>
       </c>
       <c r="O8" t="n">
-        <v>2341.238804993795</v>
+        <v>2155.602766936376</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243322</v>
+        <v>2477.000885571628</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2670.18474111696</v>
       </c>
       <c r="R8" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2574.994750559857</v>
       </c>
       <c r="T8" t="n">
-        <v>2326.134191782762</v>
+        <v>2574.994750559857</v>
       </c>
       <c r="U8" t="n">
-        <v>2242.33702482147</v>
+        <v>2321.422624080151</v>
       </c>
       <c r="V8" t="n">
-        <v>1911.2741374779</v>
+        <v>1990.35973673658</v>
       </c>
       <c r="W8" t="n">
-        <v>1558.505482207785</v>
+        <v>1637.591081466466</v>
       </c>
       <c r="X8" t="n">
-        <v>1558.505482207785</v>
+        <v>1637.591081466466</v>
       </c>
       <c r="Y8" t="n">
-        <v>1558.505482207785</v>
+        <v>1247.451749490654</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>967.3646662469702</v>
+        <v>931.3062050962127</v>
       </c>
       <c r="C9" t="n">
-        <v>792.9116369658432</v>
+        <v>756.8531758150857</v>
       </c>
       <c r="D9" t="n">
-        <v>643.9772273045919</v>
+        <v>607.9187661538344</v>
       </c>
       <c r="E9" t="n">
-        <v>484.7397722991365</v>
+        <v>448.681311148379</v>
       </c>
       <c r="F9" t="n">
-        <v>338.2052143260214</v>
+        <v>302.146753175264</v>
       </c>
       <c r="G9" t="n">
-        <v>200.7638166852434</v>
+        <v>165.5050957234327</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004796</v>
+        <v>72.31292442990733</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>121.8264159807866</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>316.004842000185</v>
       </c>
       <c r="L9" t="n">
-        <v>887.7329259922928</v>
+        <v>623.4242400445568</v>
       </c>
       <c r="M9" t="n">
-        <v>1067.230262346898</v>
+        <v>1290.968640071567</v>
       </c>
       <c r="N9" t="n">
-        <v>1734.774662373908</v>
+        <v>1833.824967998518</v>
       </c>
       <c r="O9" t="n">
-        <v>2284.210671126631</v>
+        <v>2179.829273034831</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2438.195165861565</v>
       </c>
       <c r="Q9" t="n">
-        <v>2636.288039261394</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="R9" t="n">
-        <v>2615.176139663581</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="S9" t="n">
-        <v>2465.709350526216</v>
+        <v>2426.374760706703</v>
       </c>
       <c r="T9" t="n">
-        <v>2268.720054686303</v>
+        <v>2232.608979049431</v>
       </c>
       <c r="U9" t="n">
-        <v>2040.581267197469</v>
+        <v>2004.522806046712</v>
       </c>
       <c r="V9" t="n">
-        <v>1805.429158965726</v>
+        <v>1769.370697814969</v>
       </c>
       <c r="W9" t="n">
-        <v>1551.191802237525</v>
+        <v>1515.133341086767</v>
       </c>
       <c r="X9" t="n">
-        <v>1343.340302031992</v>
+        <v>1307.281840881235</v>
       </c>
       <c r="Y9" t="n">
-        <v>1135.580003267038</v>
+        <v>1099.521542116281</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>178.4546564460382</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C10" t="n">
-        <v>178.4546564460382</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D10" t="n">
-        <v>178.4546564460382</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>178.4546564460382</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>178.4546564460382</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>178.4546564460382</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>178.4546564460382</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>82.88339090485938</v>
       </c>
       <c r="K10" t="n">
-        <v>154.9909114159743</v>
+        <v>260.2782098866545</v>
       </c>
       <c r="L10" t="n">
-        <v>339.8239063167927</v>
+        <v>542.8089378877603</v>
       </c>
       <c r="M10" t="n">
-        <v>545.0935070360306</v>
+        <v>851.0870999282808</v>
       </c>
       <c r="N10" t="n">
-        <v>750.9168718721348</v>
+        <v>1157.469712732903</v>
       </c>
       <c r="O10" t="n">
-        <v>925.0117672607337</v>
+        <v>1424.447349606354</v>
       </c>
       <c r="P10" t="n">
-        <v>1050.459343859349</v>
+        <v>1629.372157534688</v>
       </c>
       <c r="Q10" t="n">
-        <v>1053.877663279709</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="R10" t="n">
-        <v>923.3997019991118</v>
+        <v>1587.485439024174</v>
       </c>
       <c r="S10" t="n">
-        <v>923.3997019991118</v>
+        <v>1391.729710350376</v>
       </c>
       <c r="T10" t="n">
-        <v>697.7705053114768</v>
+        <v>1168.965271802899</v>
       </c>
       <c r="U10" t="n">
-        <v>697.7705053114768</v>
+        <v>879.8496667610918</v>
       </c>
       <c r="V10" t="n">
-        <v>443.0860171055899</v>
+        <v>625.165178555205</v>
       </c>
       <c r="W10" t="n">
-        <v>178.4546564460382</v>
+        <v>335.7480085182444</v>
       </c>
       <c r="X10" t="n">
-        <v>178.4546564460382</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y10" t="n">
-        <v>178.4546564460382</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
@@ -5042,19 +5042,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1803.682313196074</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M11" t="n">
-        <v>2337.214217867999</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N11" t="n">
-        <v>2883.993034926781</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O11" t="n">
-        <v>3763.957685256236</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
         <v>4470.748294107237</v>
@@ -5066,19 +5066,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>647.5249577361934</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C13" t="n">
-        <v>478.5887748082865</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D13" t="n">
-        <v>328.4721353959508</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E13" t="n">
-        <v>180.5590418135577</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F13" t="n">
-        <v>180.5590418135577</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G13" t="n">
-        <v>180.5590418135577</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U13" t="n">
-        <v>1385.724257814702</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V13" t="n">
-        <v>1385.724257814702</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W13" t="n">
-        <v>1096.307087777741</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="X13" t="n">
-        <v>868.3175368797235</v>
+        <v>1523.103642431788</v>
       </c>
       <c r="Y13" t="n">
-        <v>647.5249577361934</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
@@ -5261,7 +5261,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
         <v>850.213983755162</v>
@@ -5276,25 +5276,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>357.0540087506643</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>690.8733824405108</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1141.90759568892</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M14" t="n">
-        <v>2120.457898518748</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N14" t="n">
-        <v>2667.236715577531</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O14" t="n">
-        <v>3547.201365906985</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
         <v>4719.034655862919</v>
@@ -5309,19 +5309,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5358,10 +5358,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>784.0235789048305</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="C16" t="n">
-        <v>784.0235789048305</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="D16" t="n">
-        <v>633.9069394924948</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="E16" t="n">
-        <v>485.9938459101016</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="F16" t="n">
-        <v>339.1038984121913</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H16" t="n">
         <v>192.8867116300491</v>
@@ -5464,22 +5464,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1674.827124689058</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1385.724257814702</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>1131.039769608815</v>
+        <v>1098.788848333838</v>
       </c>
       <c r="W16" t="n">
-        <v>841.6225995718539</v>
+        <v>809.3716782968776</v>
       </c>
       <c r="X16" t="n">
-        <v>841.6225995718539</v>
+        <v>581.3821273988602</v>
       </c>
       <c r="Y16" t="n">
-        <v>784.0235789048305</v>
+        <v>360.5895482553301</v>
       </c>
     </row>
     <row r="17">
@@ -5492,19 +5492,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5513,28 +5513,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L17" t="n">
-        <v>1963.918173296941</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M17" t="n">
-        <v>2497.450077968866</v>
+        <v>1923.729615463053</v>
       </c>
       <c r="N17" t="n">
-        <v>3044.228895027648</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O17" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>2980.089005086362</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3647.567813692732</v>
+        <v>970.5459590456827</v>
       </c>
       <c r="C19" t="n">
-        <v>3478.631630764825</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="D19" t="n">
-        <v>3328.51499135249</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E19" t="n">
-        <v>3328.51499135249</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F19" t="n">
-        <v>3328.51499135249</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G19" t="n">
-        <v>3160.812154727209</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H19" t="n">
-        <v>3014.594967945066</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I19" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N19" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>4778.051722419721</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>4595.084552196294</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>4373.317936765819</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>4373.317936765819</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V19" t="n">
-        <v>4118.633448559933</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="W19" t="n">
-        <v>3829.216278522972</v>
+        <v>1163.643339221624</v>
       </c>
       <c r="X19" t="n">
-        <v>3829.216278522972</v>
+        <v>1152.194423875922</v>
       </c>
       <c r="Y19" t="n">
-        <v>3829.216278522972</v>
+        <v>1152.194423875922</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5735,43 +5735,43 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>975.9286436089831</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1840.447459262338</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2373.979363934262</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>2920.758180993045</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
-        <v>3800.7228313225</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5783,19 +5783,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5832,10 +5832,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3310.928794139544</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>3310.928794139544</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>3160.812154727209</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>3160.812154727209</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>3160.812154727209</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>3160.812154727209</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>4496.535381004075</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T22" t="n">
-        <v>4274.768765573601</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U22" t="n">
-        <v>4274.768765573601</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>4020.084277367714</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>3730.667107330753</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>3502.677556432736</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>3492.577258969784</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5963,52 +5963,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1614.698881814245</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2593.249184644074</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>3573.001456870721</v>
       </c>
       <c r="O23" t="n">
-        <v>4010.914672075804</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4405.689038432983</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6020,19 +6020,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390118</v>
@@ -6072,7 +6072,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6099,7 +6099,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3384.235206686048</v>
+        <v>974.4454116758762</v>
       </c>
       <c r="C25" t="n">
-        <v>3215.299023758141</v>
+        <v>805.5092287479694</v>
       </c>
       <c r="D25" t="n">
-        <v>3065.182384345805</v>
+        <v>655.3925893356336</v>
       </c>
       <c r="E25" t="n">
-        <v>2917.269290763412</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="F25" t="n">
-        <v>2917.269290763412</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G25" t="n">
-        <v>2917.269290763412</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H25" t="n">
-        <v>2917.269290763412</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I25" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>4496.535381004075</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T25" t="n">
-        <v>4274.768765573601</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U25" t="n">
-        <v>3985.665898699244</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V25" t="n">
-        <v>3985.665898699244</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="W25" t="n">
-        <v>3696.248728662284</v>
+        <v>1377.823429193387</v>
       </c>
       <c r="X25" t="n">
-        <v>3565.883671516287</v>
+        <v>1156.093876506116</v>
       </c>
       <c r="Y25" t="n">
-        <v>3565.883671516287</v>
+        <v>1156.093876506116</v>
       </c>
     </row>
     <row r="26">
@@ -6212,16 +6212,16 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551621</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089259</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
         <v>284.4401654074198</v>
@@ -6230,31 +6230,31 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1069.293752345675</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>1897.676284104189</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N26" t="n">
-        <v>2877.428556330835</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O26" t="n">
-        <v>3757.39320666029</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
         <v>4208.252829604874</v>
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6336,7 +6336,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>725.2129316856142</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>725.2129316856142</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>575.0962922732784</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>427.1831986908853</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>280.2932511929749</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>112.5904145676939</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6409,25 +6409,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1644.746393431758</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1355.643526557401</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V28" t="n">
-        <v>1355.643526557401</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>1355.643526557401</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>1127.653975659384</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>906.8613965158539</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2536.15366264131</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>3515.905934867957</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
-        <v>4018.878405747294</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4413.652772104471</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q29" t="n">
-        <v>4661.939133860154</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R29" t="n">
         <v>4778.05172241972</v>
@@ -6543,10 +6543,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>392.5676213586405</v>
+        <v>192.886711630049</v>
       </c>
       <c r="C31" t="n">
-        <v>392.5676213586405</v>
+        <v>192.886711630049</v>
       </c>
       <c r="D31" t="n">
-        <v>242.4509819463048</v>
+        <v>192.886711630049</v>
       </c>
       <c r="E31" t="n">
-        <v>242.4509819463048</v>
+        <v>192.886711630049</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839441</v>
@@ -6646,25 +6646,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1644.746393431758</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1355.643526557401</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V31" t="n">
-        <v>1100.959038351514</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W31" t="n">
-        <v>811.5418683145538</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X31" t="n">
-        <v>613.3602005021706</v>
+        <v>595.3277556038189</v>
       </c>
       <c r="Y31" t="n">
-        <v>392.5676213586405</v>
+        <v>374.5351764602888</v>
       </c>
     </row>
     <row r="32">
@@ -6701,19 +6701,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>901.0652231938157</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1352.099436442224</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M32" t="n">
-        <v>2330.649739272053</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N32" t="n">
-        <v>2877.428556330835</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O32" t="n">
-        <v>3757.39320666029</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
         <v>4470.748294107236</v>
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>2978.149925102192</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>951.7264155301116</v>
+        <v>3942.370854773035</v>
       </c>
       <c r="C34" t="n">
-        <v>951.7264155301116</v>
+        <v>3773.434671845128</v>
       </c>
       <c r="D34" t="n">
-        <v>801.6097761177758</v>
+        <v>3623.318032432792</v>
       </c>
       <c r="E34" t="n">
-        <v>653.6966825353827</v>
+        <v>3475.404938850399</v>
       </c>
       <c r="F34" t="n">
-        <v>506.8067350374723</v>
+        <v>3328.514991352489</v>
       </c>
       <c r="G34" t="n">
-        <v>339.1038984121913</v>
+        <v>3160.812154727208</v>
       </c>
       <c r="H34" t="n">
-        <v>192.886711630049</v>
+        <v>3014.594967945065</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="J34" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210347</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159223</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.938904607719</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207268</v>
       </c>
       <c r="N34" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913133</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833546</v>
       </c>
       <c r="P34" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267205</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R34" t="n">
-        <v>1871.574180438859</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S34" t="n">
-        <v>1871.574180438859</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="T34" t="n">
-        <v>1871.574180438859</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.574180438859</v>
+        <v>4488.948855545364</v>
       </c>
       <c r="V34" t="n">
-        <v>1871.574180438859</v>
+        <v>4413.436489640235</v>
       </c>
       <c r="W34" t="n">
-        <v>1582.157010401899</v>
+        <v>4124.019319603274</v>
       </c>
       <c r="X34" t="n">
-        <v>1354.167459503881</v>
+        <v>4124.019319603274</v>
       </c>
       <c r="Y34" t="n">
-        <v>1133.374880360351</v>
+        <v>4124.019319603274</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
@@ -6923,64 +6923,64 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1521.86673817257</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2055.398642844494</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N35" t="n">
-        <v>2602.177459903276</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6990,37 +6990,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7047,7 +7047,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7056,10 +7056,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>482.6709267727787</v>
+        <v>3623.318032432793</v>
       </c>
       <c r="C37" t="n">
-        <v>482.6709267727787</v>
+        <v>3623.318032432793</v>
       </c>
       <c r="D37" t="n">
-        <v>332.5542873604429</v>
+        <v>3623.318032432793</v>
       </c>
       <c r="E37" t="n">
-        <v>241.7782212305366</v>
+        <v>3475.4049388504</v>
       </c>
       <c r="F37" t="n">
-        <v>241.7782212305366</v>
+        <v>3328.51499135249</v>
       </c>
       <c r="G37" t="n">
-        <v>241.7782212305366</v>
+        <v>3160.812154727209</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839441</v>
+        <v>3014.594967945066</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839441</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="J37" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L37" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M37" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N37" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P37" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104704</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.65758193153</v>
+        <v>4496.535381004075</v>
       </c>
       <c r="T37" t="n">
-        <v>1764.65758193153</v>
+        <v>4274.768765573601</v>
       </c>
       <c r="U37" t="n">
-        <v>1475.554715057174</v>
+        <v>3985.665898699244</v>
       </c>
       <c r="V37" t="n">
-        <v>1220.870226851287</v>
+        <v>3730.981410493358</v>
       </c>
       <c r="W37" t="n">
-        <v>931.4530568143261</v>
+        <v>3623.318032432793</v>
       </c>
       <c r="X37" t="n">
-        <v>703.4635059163088</v>
+        <v>3623.318032432793</v>
       </c>
       <c r="Y37" t="n">
-        <v>482.6709267727787</v>
+        <v>3623.318032432793</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
@@ -7160,10 +7160,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7172,25 +7172,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>1079.910504880668</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1530.944718129077</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2064.476622801002</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N38" t="n">
-        <v>3044.228895027648</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O38" t="n">
-        <v>3547.201365906985</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
         <v>4719.034655862919</v>
@@ -7199,25 +7199,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
@@ -7257,7 +7257,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7269,22 +7269,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7293,10 +7293,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>827.5554641779659</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C40" t="n">
-        <v>658.619281250059</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>508.5026418377232</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7354,28 +7354,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>1674.827124689058</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>1385.724257814702</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V40" t="n">
-        <v>1385.724257814702</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W40" t="n">
-        <v>1096.307087777741</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
-        <v>1096.307087777741</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
-        <v>875.5145086342108</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7409,25 +7409,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N41" t="n">
-        <v>3070.887536710053</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O41" t="n">
-        <v>3573.86000758939</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
         <v>4719.034655862919</v>
@@ -7442,7 +7442,7 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
         <v>3877.189942261304</v>
@@ -7491,10 +7491,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3624.551378735419</v>
+        <v>929.0412991518393</v>
       </c>
       <c r="C43" t="n">
-        <v>3455.615195807512</v>
+        <v>760.1051162239324</v>
       </c>
       <c r="D43" t="n">
-        <v>3455.615195807512</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E43" t="n">
-        <v>3307.702102225119</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F43" t="n">
-        <v>3160.812154727209</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G43" t="n">
-        <v>3160.812154727209</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H43" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M43" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N43" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P43" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T43" t="n">
-        <v>4556.285106989247</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U43" t="n">
-        <v>4267.18224011489</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V43" t="n">
-        <v>4267.18224011489</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="W43" t="n">
-        <v>4073.333508776966</v>
+        <v>1377.823429193387</v>
       </c>
       <c r="X43" t="n">
-        <v>3845.343957878949</v>
+        <v>1149.833878295369</v>
       </c>
       <c r="Y43" t="n">
-        <v>3624.551378735419</v>
+        <v>929.0412991518393</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2337.214217867999</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>2883.993034926781</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>3763.957685256236</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7701,37 +7701,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7767,10 +7767,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3384.235206686048</v>
+        <v>1023.336921276364</v>
       </c>
       <c r="C46" t="n">
-        <v>3215.299023758141</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D46" t="n">
-        <v>3065.182384345805</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E46" t="n">
-        <v>2917.269290763412</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F46" t="n">
-        <v>2917.269290763412</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G46" t="n">
-        <v>2917.269290763412</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H46" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>4586.365838246547</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>4364.599222816073</v>
+        <v>1653.767516148151</v>
       </c>
       <c r="U46" t="n">
-        <v>4075.496355941717</v>
+        <v>1653.767516148151</v>
       </c>
       <c r="V46" t="n">
-        <v>4075.496355941717</v>
+        <v>1653.767516148151</v>
       </c>
       <c r="W46" t="n">
-        <v>3786.676250659817</v>
+        <v>1653.767516148151</v>
       </c>
       <c r="X46" t="n">
-        <v>3786.676250659817</v>
+        <v>1425.777965250134</v>
       </c>
       <c r="Y46" t="n">
-        <v>3565.883671516287</v>
+        <v>1204.985386106604</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,13 +8219,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>312.2066704284449</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>432.4286733436938</v>
       </c>
       <c r="N6" t="n">
-        <v>435.923890002883</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8453,28 +8453,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>353.5884602791688</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,31 +8529,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>292.3672670436453</v>
       </c>
       <c r="N9" t="n">
-        <v>473.6238973478236</v>
+        <v>141.7572465715222</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>12.80230762322897</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>17.26494649393209</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8690,22 +8690,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>315.167921710932</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8924,28 +8924,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.34731650832771</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9161,22 +9161,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>410.4190035206666</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>132.9990175570125</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>192.185308577135</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>381.8176570184011</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9650,7 +9650,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>67.53663776704173</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9878,10 +9878,10 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>297.8289162490798</v>
+        <v>201.9664098701126</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9890,7 +9890,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10109,13 +10109,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10124,7 +10124,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>57.67224444723641</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,22 +10349,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>285.6623071682316</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10586,28 +10586,28 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>132.9990175570114</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,28 +10820,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2174916798473</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11057,28 +11057,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P41" t="n">
-        <v>294.8707872801648</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11294,13 +11294,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,16 +11309,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P44" t="n">
-        <v>102.8529310510272</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>60.60698762280919</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>48.93987327667872</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,19 +23656,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23704,22 +23704,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>187.6205372139423</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>161.5616228917416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,13 +23893,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>8.631526810248914</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,13 +23947,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>214.375229196793</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24130,7 +24130,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,10 +24142,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>208.585358863772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>96.64824881450096</v>
+        <v>6.197398228639059</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24604,19 +24604,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>127.8959285962143</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24649,19 +24649,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24856,7 +24856,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>29.50980425477786</v>
+        <v>201.4267091368514</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>5.010559860861221</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -25129,19 +25129,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>177.3804010777506</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25315,22 +25315,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>56.56565717796197</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,13 +25372,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>179.9362540566323</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.3525261702549</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,25 +25594,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>93.35266590327919</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>94.61275431204655</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26032,13 +26032,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26074,19 +26074,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>109.7677841506238</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0.591094107510969</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>932957.1346399121</v>
+        <v>910566.2288273899</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>910566.2288273899</v>
+        <v>870887.0590351415</v>
       </c>
     </row>
     <row r="5">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>861640.6778858806</v>
+        <v>861640.6778858805</v>
       </c>
     </row>
     <row r="11">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049991</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.238904999</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="E2" t="n">
+        <v>555914.5016417764</v>
+      </c>
+      <c r="F2" t="n">
+        <v>555914.5016417768</v>
+      </c>
+      <c r="G2" t="n">
         <v>555914.5016417766</v>
       </c>
-      <c r="F2" t="n">
-        <v>555914.5016417766</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>555914.5016417765</v>
+      </c>
+      <c r="I2" t="n">
         <v>555914.5016417764</v>
       </c>
-      <c r="H2" t="n">
-        <v>555914.5016417762</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>555914.5016417764</v>
+      </c>
+      <c r="K2" t="n">
+        <v>555914.5016417765</v>
+      </c>
+      <c r="L2" t="n">
+        <v>555914.5016417763</v>
+      </c>
+      <c r="M2" t="n">
         <v>555914.5016417768</v>
       </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
+        <v>555914.5016417764</v>
+      </c>
+      <c r="O2" t="n">
         <v>555914.5016417765</v>
       </c>
-      <c r="K2" t="n">
-        <v>555914.5016417766</v>
-      </c>
-      <c r="L2" t="n">
-        <v>555914.5016417769</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>555914.5016417763</v>
-      </c>
-      <c r="N2" t="n">
-        <v>555914.5016417766</v>
-      </c>
-      <c r="O2" t="n">
-        <v>555914.5016417763</v>
-      </c>
-      <c r="P2" t="n">
-        <v>555914.5016417765</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>196446.3877966352</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481116</v>
+        <v>315238.2384513056</v>
       </c>
       <c r="E3" t="n">
-        <v>554057.3276165043</v>
+        <v>258331.9582431705</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207826.5542404878</v>
+        <v>209922.4154630333</v>
       </c>
       <c r="C4" t="n">
-        <v>207826.5542404878</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="D4" t="n">
-        <v>174833.3509411825</v>
+        <v>121617.1617317167</v>
       </c>
       <c r="E4" t="n">
-        <v>27740.54210219669</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="F4" t="n">
-        <v>27740.54210219669</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="G4" t="n">
-        <v>27740.54210219669</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="H4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="I4" t="n">
-        <v>27740.54210219666</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="J4" t="n">
-        <v>27740.54210219668</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="K4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="L4" t="n">
-        <v>27740.54210219668</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="M4" t="n">
-        <v>27740.54210219666</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="N4" t="n">
-        <v>27740.54210219664</v>
+        <v>28561.83935289572</v>
       </c>
       <c r="O4" t="n">
-        <v>27740.54210219668</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="P4" t="n">
-        <v>27740.54210219668</v>
+        <v>28561.83935289575</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>87562.0451708468</v>
       </c>
       <c r="D5" t="n">
-        <v>87562.0451708468</v>
+        <v>95586.42776879412</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
@@ -26488,10 +26488,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="J5" t="n">
         <v>96383.51825371366</v>
-      </c>
-      <c r="J5" t="n">
-        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371364</v>
@@ -26500,7 +26500,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
         <v>96383.51825371366</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-305924.2726134428</v>
+        <v>-308020.1338359882</v>
       </c>
       <c r="C6" t="n">
-        <v>284043.6066011013</v>
+        <v>114453.8300362373</v>
       </c>
       <c r="D6" t="n">
-        <v>127577.564244858</v>
+        <v>42287.41095318191</v>
       </c>
       <c r="E6" t="n">
-        <v>-122266.886330638</v>
+        <v>172637.1857919965</v>
       </c>
       <c r="F6" t="n">
-        <v>431790.4412858663</v>
+        <v>430969.1440351674</v>
       </c>
       <c r="G6" t="n">
-        <v>431790.441285866</v>
+        <v>430969.1440351672</v>
       </c>
       <c r="H6" t="n">
-        <v>431790.4412858658</v>
+        <v>430969.1440351671</v>
       </c>
       <c r="I6" t="n">
-        <v>431790.4412858664</v>
+        <v>430969.1440351671</v>
       </c>
       <c r="J6" t="n">
-        <v>255367.2220932733</v>
+        <v>254545.924842574</v>
       </c>
       <c r="K6" t="n">
-        <v>431790.4412858663</v>
+        <v>430969.1440351672</v>
       </c>
       <c r="L6" t="n">
-        <v>431790.4412858665</v>
+        <v>430969.1440351669</v>
       </c>
       <c r="M6" t="n">
-        <v>302148.1264469213</v>
+        <v>301326.8291962225</v>
       </c>
       <c r="N6" t="n">
-        <v>431790.4412858664</v>
+        <v>430969.1440351671</v>
       </c>
       <c r="O6" t="n">
-        <v>431790.4412858659</v>
+        <v>430969.1440351671</v>
       </c>
       <c r="P6" t="n">
-        <v>431790.4412858661</v>
+        <v>430969.1440351669</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>593.4761003380651</v>
+        <v>961.5670451980342</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209784</v>
+        <v>368.0909448599691</v>
       </c>
       <c r="E3" t="n">
-        <v>496.3006002552332</v>
+        <v>128.2096553952641</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.8880776672813</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>287.8140173883482</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>121.0112255313337</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>13.43676775329519</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27594,7 +27594,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>3.111762223265757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>323.8279705444795</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>22.76725076999571</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>176.1237042092994</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>266.5628760341891</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>61.44749355031658</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.1742023667268</v>
       </c>
       <c r="U8" t="n">
-        <v>168.1955909306219</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28017,22 +28017,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>166.2570059982656</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>146.8105729959039</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>103.3051669679944</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,22 +28059,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>24.53795128363475</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>93.15664160470521</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-6.513365691514747e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.38583356919825</v>
+        <v>3.865596161600135</v>
       </c>
       <c r="H8" t="n">
-        <v>24.43391804055158</v>
+        <v>39.58853668998739</v>
       </c>
       <c r="I8" t="n">
-        <v>91.97984867651562</v>
+        <v>149.0283960200893</v>
       </c>
       <c r="J8" t="n">
-        <v>202.4946418937401</v>
+        <v>328.0876422206097</v>
       </c>
       <c r="K8" t="n">
-        <v>303.4869768779021</v>
+        <v>491.7183277411435</v>
       </c>
       <c r="L8" t="n">
-        <v>376.5024309712531</v>
+        <v>610.0200662717137</v>
       </c>
       <c r="M8" t="n">
-        <v>418.9314987074825</v>
+        <v>678.7648620105701</v>
       </c>
       <c r="N8" t="n">
-        <v>425.710248335967</v>
+        <v>689.7479871047166</v>
       </c>
       <c r="O8" t="n">
-        <v>401.9861157822519</v>
+        <v>651.3094652728051</v>
       </c>
       <c r="P8" t="n">
-        <v>343.0858495426701</v>
+        <v>555.8775600333017</v>
       </c>
       <c r="Q8" t="n">
-        <v>257.6431848457577</v>
+        <v>417.4408974959968</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>242.8222548861146</v>
       </c>
       <c r="S8" t="n">
-        <v>54.36718245810517</v>
+        <v>88.08727253246315</v>
       </c>
       <c r="T8" t="n">
-        <v>10.44398644916534</v>
+        <v>16.9216471974046</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.3092476929280107</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.276533498840366</v>
+        <v>2.068276285897658</v>
       </c>
       <c r="H9" t="n">
-        <v>12.32862615985301</v>
+        <v>19.97519465590634</v>
       </c>
       <c r="I9" t="n">
-        <v>43.95082441182841</v>
+        <v>71.21038966796763</v>
       </c>
       <c r="J9" t="n">
-        <v>120.6044214847383</v>
+        <v>195.4067520812345</v>
       </c>
       <c r="K9" t="n">
-        <v>206.1321659070429</v>
+        <v>333.9812632363776</v>
       </c>
       <c r="L9" t="n">
-        <v>277.1701353512822</v>
+        <v>449.0790242691386</v>
       </c>
       <c r="M9" t="n">
-        <v>323.4444746842454</v>
+        <v>524.0540396329286</v>
       </c>
       <c r="N9" t="n">
-        <v>332.0050874900653</v>
+        <v>537.9241906905494</v>
       </c>
       <c r="O9" t="n">
-        <v>303.7197925947077</v>
+        <v>492.0955424609223</v>
       </c>
       <c r="P9" t="n">
-        <v>243.7619099671574</v>
+        <v>394.9500567342643</v>
       </c>
       <c r="Q9" t="n">
-        <v>162.9483813607457</v>
+        <v>264.0136536173924</v>
       </c>
       <c r="R9" t="n">
-        <v>79.25705355080804</v>
+        <v>128.4145574700319</v>
       </c>
       <c r="S9" t="n">
-        <v>23.71104985784626</v>
+        <v>38.4173248718271</v>
       </c>
       <c r="T9" t="n">
-        <v>5.145325813308317</v>
+        <v>8.336604854122577</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.1360708082827407</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.070202803888314</v>
+        <v>1.733973360193176</v>
       </c>
       <c r="H10" t="n">
-        <v>9.515075838207016</v>
+        <v>15.41659951153571</v>
       </c>
       <c r="I10" t="n">
-        <v>32.18391704784131</v>
+        <v>52.1453079592639</v>
       </c>
       <c r="J10" t="n">
-        <v>75.66333823490379</v>
+        <v>122.5919165656576</v>
       </c>
       <c r="K10" t="n">
-        <v>124.3381075790241</v>
+        <v>201.4561776660799</v>
       </c>
       <c r="L10" t="n">
-        <v>159.1099695889954</v>
+        <v>257.7945484781746</v>
       </c>
       <c r="M10" t="n">
-        <v>167.7591540676927</v>
+        <v>271.8082059073721</v>
       </c>
       <c r="N10" t="n">
-        <v>163.7702163441091</v>
+        <v>265.3452142921068</v>
       </c>
       <c r="O10" t="n">
-        <v>151.2683017714137</v>
+        <v>245.0892527662137</v>
       </c>
       <c r="P10" t="n">
-        <v>129.436164572092</v>
+        <v>209.7161962182728</v>
       </c>
       <c r="Q10" t="n">
-        <v>89.61489115104783</v>
+        <v>145.1966238249032</v>
       </c>
       <c r="R10" t="n">
-        <v>48.12020970937817</v>
+        <v>77.96574763195861</v>
       </c>
       <c r="S10" t="n">
-        <v>18.65071613685361</v>
+        <v>30.21842664991198</v>
       </c>
       <c r="T10" t="n">
-        <v>4.572684707522795</v>
+        <v>7.408795266279933</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.09458036510144609</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32075,7 +32075,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
@@ -32096,7 +32096,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32315,7 +32315,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
         <v>508.9565619138796</v>
@@ -32324,7 +32324,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
         <v>557.708647897025</v>
@@ -32552,7 +32552,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138796</v>
@@ -32792,7 +32792,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M24" t="n">
         <v>593.9283018233475</v>
@@ -32804,7 +32804,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
@@ -33023,7 +33023,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33044,7 +33044,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33263,7 +33263,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33281,7 +33281,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33509,7 +33509,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
         <v>557.708647897025</v>
@@ -33734,7 +33734,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34457,7 +34457,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
         <v>557.708647897025</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>452.9426864297107</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>613.7391141059209</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932197</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>147.0417376939234</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>271.628476696163</v>
       </c>
       <c r="L8" t="n">
-        <v>140.7360160012659</v>
+        <v>374.2536513017265</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>448.4186287832974</v>
       </c>
       <c r="N8" t="n">
-        <v>549.8856450185449</v>
+        <v>460.3349235081257</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>421.2112538511184</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>324.6445642780322</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>195.1352076215473</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>27.23671707198253</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>68.56912541456782</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>196.1398242620186</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>310.5246444892644</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N9" t="n">
-        <v>674.2872727545556</v>
+        <v>548.3397251787383</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>349.4992980164778</v>
       </c>
       <c r="P9" t="n">
-        <v>122.5898101760561</v>
+        <v>260.9756493199341</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>124.0318795313709</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>29.23273644898478</v>
       </c>
       <c r="K10" t="n">
-        <v>102.0686157531412</v>
+        <v>179.186685840197</v>
       </c>
       <c r="L10" t="n">
-        <v>186.6999948493115</v>
+        <v>285.3845737384908</v>
       </c>
       <c r="M10" t="n">
-        <v>207.3430310295333</v>
+        <v>311.3920828692127</v>
       </c>
       <c r="N10" t="n">
-        <v>207.9023887233377</v>
+        <v>309.4773866713355</v>
       </c>
       <c r="O10" t="n">
-        <v>175.8534296854534</v>
+        <v>269.6743806802534</v>
       </c>
       <c r="P10" t="n">
-        <v>126.7147238369855</v>
+        <v>206.9947554831663</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.452847899353443</v>
+        <v>59.03458057320877</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,22 +35410,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>713.9299079303039</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
         <v>250.7943048037195</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>264.1343174770403</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M14" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
         <v>59.61319854222478</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
@@ -35744,7 +35744,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,22 +35881,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>866.0091179129988</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>685.300852969924</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908545</v>
@@ -35905,7 +35905,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
         <v>370.4021821340054</v>
@@ -35972,7 +35972,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
         <v>415.1124034525806</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>529.3765951325355</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340054</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>837.4077714107333</v>
       </c>
       <c r="M23" t="n">
         <v>988.4346493230593</v>
@@ -36370,7 +36370,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>575.5896386552608</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
@@ -36379,7 +36379,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,7 +36440,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M24" t="n">
         <v>451.7942679013292</v>
@@ -36452,7 +36452,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36598,10 +36598,10 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>836.7500320793066</v>
+        <v>740.8875257003393</v>
       </c>
       <c r="N26" t="n">
         <v>989.6487598248956</v>
@@ -36610,7 +36610,7 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037195</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597718</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36692,7 +36692,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
         <v>988.4346493230593</v>
@@ -36844,7 +36844,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -36853,7 +36853,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>117.2854429894612</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -36929,7 +36929,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,22 +37069,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>622.8535937236321</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M32" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
         <v>250.7943048037195</v>
@@ -37157,7 +37157,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
         <v>415.1124034525806</v>
@@ -37306,28 +37306,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>588.5891319493436</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597718</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>634.4087782352478</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
         <v>59.61319854222478</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P41" t="n">
-        <v>693.6327734995367</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
         <v>59.61319854222478</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
@@ -38029,16 +38029,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P44" t="n">
-        <v>501.614917270399</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38105,7 +38105,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
         <v>415.1124034525806</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2051229.620847474</v>
+        <v>2046923.904471402</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>314.6757550035595</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -715,16 +715,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>217.2279456158284</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -828,19 +828,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>34.45403149117942</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>268.6413070582234</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>328.0287908880682</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,10 +907,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>21.86332069614261</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544559</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>14.46389722690851</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>109.3579684741943</v>
+        <v>291.7409322676289</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>67.05256014725454</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>129.2224443473097</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1530,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>28.75188085812055</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>35.88641949135634</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>194.0641876011614</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,10 +2058,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>25.7319404949734</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>19.91555826189198</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>88.42183553064734</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>133.7457933526584</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,13 +3246,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>185.3892167411514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3435,13 +3435,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>19.91555826189198</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>35.88641949135589</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3517,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>52.21533522728818</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3672,7 +3672,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>60.11729550773637</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,13 +3717,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>81.2657841108899</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>159.6155901915576</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>168.4805514670954</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1310.22335213854</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C2" t="n">
-        <v>941.2608351981287</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D2" t="n">
-        <v>941.2608351981287</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E2" t="n">
-        <v>555.4725825998845</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>525.2632558086682</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4363,19 +4363,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2027.886079546233</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1696.823192202662</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.823192202662</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1696.823192202662</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1696.823192202662</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4409,31 +4409,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>551.822117562146</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>382.8223173004784</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>225.0739447330085</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>88.7450338316568</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>308.6274700262513</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1958.288858935031</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.94664591678</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2675.064928698886</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2498.887441013057</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2498.887441013057</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2245.125655651148</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>1914.062768307577</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>1561.294113037463</v>
       </c>
       <c r="X5" t="n">
-        <v>1958.288858935031</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="Y5" t="n">
-        <v>1958.288858935031</v>
+        <v>1187.828354776384</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4704,25 +4704,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2095034521276</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2095034521276</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1722.283630960732</v>
+        <v>2310.5492509541</v>
       </c>
       <c r="C8" t="n">
-        <v>1353.32111402032</v>
+        <v>1941.586734013689</v>
       </c>
       <c r="D8" t="n">
-        <v>995.05541541357</v>
+        <v>1583.321035406938</v>
       </c>
       <c r="E8" t="n">
-        <v>609.2671628153257</v>
+        <v>1197.532782808694</v>
       </c>
       <c r="F8" t="n">
-        <v>602.3216620661223</v>
+        <v>786.5468780190865</v>
       </c>
       <c r="G8" t="n">
         <v>491.8590676477442</v>
@@ -4804,25 +4804,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>242.5828808341008</v>
+        <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
-        <v>646.0499938541462</v>
+        <v>192.4307036906658</v>
       </c>
       <c r="L8" t="n">
-        <v>1094.46325341956</v>
+        <v>745.243961936865</v>
       </c>
       <c r="M8" t="n">
-        <v>1281.162666244967</v>
+        <v>1376.961772920177</v>
       </c>
       <c r="N8" t="n">
-        <v>1475.49687913695</v>
+        <v>2004.269440980023</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904027</v>
+        <v>2551.430645747101</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243322</v>
+        <v>2662.164970996627</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4834,22 +4834,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2482.349229285934</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2482.349229285934</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2482.349229285934</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2482.349229285934</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>2108.883471024854</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y8" t="n">
-        <v>2108.883471024854</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="9">
@@ -4886,16 +4886,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>121.5508014837215</v>
       </c>
       <c r="L9" t="n">
-        <v>887.7329259922928</v>
+        <v>592.9687148475971</v>
       </c>
       <c r="M9" t="n">
-        <v>1067.230262346898</v>
+        <v>1233.514064314702</v>
       </c>
       <c r="N9" t="n">
-        <v>1734.774662373908</v>
+        <v>1432.170805967367</v>
       </c>
       <c r="O9" t="n">
         <v>1981.606814720089</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>440.7256628952076</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C10" t="n">
-        <v>271.7894799673007</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>121.672840554965</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>121.672840554965</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>121.672840554965</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>121.672840554965</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>121.672840554965</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4986,28 +4986,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>668.715213793225</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>668.715213793225</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="X10" t="n">
-        <v>440.7256628952076</v>
+        <v>923.3499417167701</v>
       </c>
       <c r="Y10" t="n">
-        <v>440.7256628952076</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="11">
@@ -5029,34 +5029,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400717</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400717</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>513.8536007400717</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5269,31 +5269,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>789.7592298206043</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>620.8230468926974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>470.7064074803617</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000582</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1964.291482935239</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1709.606994729352</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1420.189824692392</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1192.200273794374</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>971.4076946508441</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5503,10 +5503,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5515,10 +5515,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,28 +5734,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>2565.513299557012</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>3060.83890577277</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>3658.217393399322</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>4285.815356953929</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5892,16 +5892,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5977,10 +5977,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2824.769373306003</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C25" t="n">
-        <v>2655.833190378096</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D25" t="n">
-        <v>2505.71655096576</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E25" t="n">
-        <v>2357.803457383367</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>2337.686731866304</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>2337.686731866304</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>4507.978318053498</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>4288.376853076439</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>3999.301626420637</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>3744.61713821475</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>3455.19996817779</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>3227.210417279773</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y25" t="n">
-        <v>3006.417838136243</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="26">
@@ -6208,28 +6208,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1963.765362972544</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6697,25 +6697,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>554.5813165460164</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C34" t="n">
-        <v>385.6451336181095</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D34" t="n">
-        <v>235.5284942057738</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="E34" t="n">
-        <v>235.5284942057738</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>452.7119585201414</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X34" t="n">
-        <v>957.0223605197863</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y34" t="n">
-        <v>736.2297813762561</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="35">
@@ -6931,19 +6931,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6958,7 +6958,7 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6976,10 +6976,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>2231.588527385791</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>2257.062161108197</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>2854.440648734749</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>3482.038612289356</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2824.769373306003</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>2655.833190378096</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D37" t="n">
-        <v>2505.71655096576</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E37" t="n">
-        <v>2357.803457383367</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>2357.803457383367</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>2337.686731866304</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>2410.714175003133</v>
       </c>
       <c r="S37" t="n">
-        <v>4507.978318053498</v>
+        <v>2410.714175003133</v>
       </c>
       <c r="T37" t="n">
-        <v>4288.376853076439</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="U37" t="n">
-        <v>3999.301626420637</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V37" t="n">
-        <v>3744.61713821475</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W37" t="n">
-        <v>3455.19996817779</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X37" t="n">
-        <v>3227.210417279773</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y37" t="n">
-        <v>3006.417838136243</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="38">
@@ -7165,31 +7165,31 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7256,13 +7256,13 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
         <v>2001.151557821488</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>835.5837926935558</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
         <v>484.8112968429803</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2386.238542663355</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2203.383708318259</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1983.7822433412</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1983.7822433412</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1729.097755135313</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7490,28 +7490,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1320.560501433898</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1872.470231673185</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>614.6217844681063</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C43" t="n">
-        <v>614.6217844681063</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D43" t="n">
-        <v>464.5051450557705</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2297.830729215602</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2078.229264238543</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1789.154037582741</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V43" t="n">
-        <v>1534.469549376854</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W43" t="n">
-        <v>1245.052379339893</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X43" t="n">
-        <v>1017.062828441876</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y43" t="n">
-        <v>796.270249298346</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7739,16 +7739,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7785,16 +7785,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7806,49 +7806,49 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
         <v>753.3092412490405</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>35.04072454780376</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2066704284449</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8534,19 +8534,19 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>337.5639548971532</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>473.6238973478236</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>88.2018582600214</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>116.6691671648107</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>250.2980548978878</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>92.12028678808278</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>226.4057028288546</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>46.45968844823102</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>125.5054897610393</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>137.2878198583898</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>31.77834493961043</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>40.32043864788574</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>145.6085800303769</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>30.48882721876579</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>115.0314858713397</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>6.257951202385321</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>99.7605018907547</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>66.09406519747952</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>57.2291039219418</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>852383.4813946051</v>
+        <v>852383.4813946052</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>852383.4813946051</v>
+        <v>852383.481394605</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>852383.4813946051</v>
+        <v>852383.481394605</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>852383.481394605</v>
+        <v>852383.4813946051</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>852383.4813946051</v>
+        <v>852383.481394605</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>852383.481394605</v>
+        <v>852383.4813946051</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>852383.4813946051</v>
+        <v>852383.4813946052</v>
       </c>
     </row>
     <row r="15">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.238904999</v>
+      </c>
+      <c r="C2" t="n">
         <v>574729.2389049989</v>
       </c>
-      <c r="C2" t="n">
-        <v>574729.238904999</v>
-      </c>
       <c r="D2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
         <v>565002.6197830046</v>
       </c>
       <c r="F2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="G2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="H2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="I2" t="n">
         <v>565002.6197830044</v>
-      </c>
-      <c r="G2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="H2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="I2" t="n">
-        <v>565002.6197830043</v>
       </c>
       <c r="J2" t="n">
         <v>565002.6197830043</v>
@@ -26343,16 +26343,16 @@
         <v>565002.6197830045</v>
       </c>
       <c r="L2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="M2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="M2" t="n">
-        <v>565002.619783004</v>
-      </c>
       <c r="N2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="O2" t="n">
         <v>565002.6197830044</v>
-      </c>
-      <c r="O2" t="n">
-        <v>565002.6197830045</v>
       </c>
       <c r="P2" t="n">
         <v>565002.6197830045</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080587</v>
+        <v>124208.5107080583</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,10 +26426,10 @@
         <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="F4" t="n">
         <v>5677.536566682745</v>
-      </c>
-      <c r="F4" t="n">
-        <v>5677.536566682744</v>
       </c>
       <c r="G4" t="n">
         <v>5677.536566682745</v>
@@ -26444,19 +26444,19 @@
         <v>5677.536566682744</v>
       </c>
       <c r="K4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="L4" t="n">
         <v>5677.536566682744</v>
       </c>
-      <c r="L4" t="n">
-        <v>5677.536566682745</v>
-      </c>
       <c r="M4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="P4" t="n">
         <v>5677.536566682744</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-308020.1338359885</v>
+        <v>-308020.1338359884</v>
       </c>
       <c r="C6" t="n">
-        <v>281947.7453785562</v>
+        <v>281947.7453785561</v>
       </c>
       <c r="D6" t="n">
-        <v>126143.9392847611</v>
+        <v>126143.9392847608</v>
       </c>
       <c r="E6" t="n">
-        <v>-312850.1379883917</v>
+        <v>-313197.5172427487</v>
       </c>
       <c r="F6" t="n">
-        <v>458202.5533924145</v>
+        <v>457855.1741380579</v>
       </c>
       <c r="G6" t="n">
-        <v>458202.553392415</v>
+        <v>457855.1741380575</v>
       </c>
       <c r="H6" t="n">
-        <v>458202.5533924145</v>
+        <v>457855.1741380577</v>
       </c>
       <c r="I6" t="n">
-        <v>458202.5533924144</v>
+        <v>457855.1741380576</v>
       </c>
       <c r="J6" t="n">
-        <v>281779.3341998215</v>
+        <v>281431.9549454644</v>
       </c>
       <c r="K6" t="n">
-        <v>458202.5533924146</v>
+        <v>457855.1741380577</v>
       </c>
       <c r="L6" t="n">
-        <v>458202.5533924146</v>
+        <v>457855.1741380577</v>
       </c>
       <c r="M6" t="n">
-        <v>333994.0426843555</v>
+        <v>333646.6634299993</v>
       </c>
       <c r="N6" t="n">
-        <v>458202.5533924146</v>
+        <v>457855.1741380577</v>
       </c>
       <c r="O6" t="n">
-        <v>458202.5533924146</v>
+        <v>457855.1741380576</v>
       </c>
       <c r="P6" t="n">
-        <v>458202.5533924145</v>
+        <v>457855.1741380577</v>
       </c>
     </row>
   </sheetData>
@@ -26989,10 +26989,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>99.10841501723553</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>33.99622189246085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27548,19 +27548,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>10.74592769735757</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,10 +27593,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>17.64056718375429</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>37.24410088293934</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,10 +27627,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>32.61508187866909</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831822</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>120.5017245654297</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27864,10 +27864,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>303.5589354717425</v>
+        <v>121.1759716783079</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28031,7 +28031,7 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>56.21399773216244</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
         <v>17.69584188176898</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
@@ -28070,16 +28070,16 @@
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>96.48721104172748</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31837,7 +31837,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31849,22 +31849,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>379.4203056753698</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>156.3072281639545</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,13 +32311,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32329,16 +32329,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>360.9226811202611</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32548,10 +32548,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32563,10 +32563,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
-        <v>514.6953762540926</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32575,7 +32575,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32800,16 +32800,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>370.9642309107746</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,28 +33022,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>456.5952253539618</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
-        <v>316.0872899694776</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338194</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33976,7 +33976,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33985,7 +33985,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -34210,31 +34210,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>548.8125296967492</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>353.130074847795</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K5" t="n">
         <v>297.223041434342</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>118.4378503807253</v>
       </c>
       <c r="L8" t="n">
-        <v>452.9426864297107</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>476.1797104685612</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>674.2872727545556</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>249.3254064102847</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35497,22 +35497,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>237.2862717533515</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,22 +35731,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35883,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35901,7 +35901,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924728</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35977,16 +35977,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36211,10 +36211,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
-        <v>372.0991318096482</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36378,10 +36378,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36448,16 +36448,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>228.3679864663302</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36837,7 +36837,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>322.6208179396315</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
-        <v>173.4910455250332</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394525</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37633,7 +37633,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37858,31 +37858,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>414.838122282419</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2046923.904471402</v>
+        <v>2048684.434774187</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>314.6757550035595</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>117.339905340422</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>34.45403149117925</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -840,7 +840,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>34.45403149117942</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>28.11374845278275</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>14.46389722690851</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>291.7409322676289</v>
+        <v>270.543588610443</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1302,16 +1302,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>92.03069542442314</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>129.2224443473097</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>35.88641949135634</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>25.7319404949734</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>162.1944220709586</v>
       </c>
       <c r="U16" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>40.3626499519043</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>88.42183553064734</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>123.3988099269025</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>133.7457933526584</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>137.7610225486949</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>35.88641949135589</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3517,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3663,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>52.21533522728818</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>159.6155901915576</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>51.3656974031032</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>936.2491605982757</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C2" t="n">
-        <v>936.2491605982757</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D2" t="n">
-        <v>936.2491605982757</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>936.2491605982757</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>525.2632558086682</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4342,7 +4342,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2347.417756953369</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2093.65597159146</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1762.593084247889</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1409.824428977775</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.2491605982757</v>
+        <v>1036.358670716696</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4412,22 +4412,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="E4" t="n">
-        <v>698.7120650600564</v>
+        <v>663.910013048764</v>
       </c>
       <c r="F4" t="n">
-        <v>551.822117562146</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G4" t="n">
-        <v>382.8223173004784</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
-        <v>225.0739447330085</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>88.7450338316568</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="5">
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4707,19 +4707,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="D7" t="n">
-        <v>578.0123447940987</v>
+        <v>699.7312584965529</v>
       </c>
       <c r="E7" t="n">
-        <v>430.0992512117056</v>
+        <v>551.8181649141598</v>
       </c>
       <c r="F7" t="n">
-        <v>283.2093037137952</v>
+        <v>404.9282174162494</v>
       </c>
       <c r="G7" t="n">
-        <v>114.2095034521276</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="H7" t="n">
-        <v>114.2095034521276</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I7" t="n">
         <v>99.5995062532301</v>
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2310.5492509541</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="C8" t="n">
-        <v>1941.586734013689</v>
+        <v>1601.952160546617</v>
       </c>
       <c r="D8" t="n">
-        <v>1583.321035406938</v>
+        <v>1243.686461939866</v>
       </c>
       <c r="E8" t="n">
-        <v>1197.532782808694</v>
+        <v>857.8982093416219</v>
       </c>
       <c r="F8" t="n">
-        <v>786.5468780190865</v>
+        <v>446.9123045520143</v>
       </c>
       <c r="G8" t="n">
-        <v>491.8590676477442</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="H8" t="n">
         <v>173.6359524202537</v>
@@ -4843,13 +4843,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018222</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y8" t="n">
-        <v>2697.149091018222</v>
+        <v>1970.914677487028</v>
       </c>
     </row>
     <row r="9">
@@ -4889,19 +4889,19 @@
         <v>121.5508014837215</v>
       </c>
       <c r="L9" t="n">
-        <v>592.9687148475971</v>
+        <v>625.9123413498401</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.514064314702</v>
+        <v>1266.457690816945</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>1640.147320825857</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2189.58332957858</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.9088977430002</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150933</v>
+        <v>884.9414803518023</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>734.8248409394665</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>586.9117473570734</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>440.021799859163</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>271.4149548545464</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>178.4546564460382</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -5004,10 +5004,10 @@
         <v>1053.877663279709</v>
       </c>
       <c r="X10" t="n">
-        <v>923.3499417167701</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="Y10" t="n">
-        <v>702.55736257324</v>
+        <v>1053.877663279709</v>
       </c>
     </row>
     <row r="11">
@@ -5029,31 +5029,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5117,13 +5117,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5135,7 +5135,7 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2191.112710026075</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.428221820188</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5296,7 +5296,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5366,10 +5366,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2100.27549966854</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1811.200273012738</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1556.515784806851</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1267.09861476989</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="17">
@@ -5597,16 +5597,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5652,22 +5652,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
@@ -5740,22 +5740,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5843,7 +5843,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5889,16 +5889,16 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5983,28 +5983,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>719.5738700011939</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C25" t="n">
-        <v>550.637687073287</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D25" t="n">
-        <v>550.637687073287</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E25" t="n">
         <v>402.7245934908939</v>
@@ -6189,10 +6189,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1122.014913974964</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>901.2223348314336</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6317,7 +6317,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6460,22 +6460,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6691,28 +6691,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>768.5380889459586</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C34" t="n">
-        <v>599.6019060180517</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D34" t="n">
-        <v>599.6019060180517</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>599.6019060180517</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>452.7119585201414</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2240.764831803678</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2021.163366826619</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1732.088140170817</v>
       </c>
       <c r="V34" t="n">
-        <v>1688.385853854707</v>
+        <v>1477.40365196493</v>
       </c>
       <c r="W34" t="n">
-        <v>1398.968683817746</v>
+        <v>1187.986481927969</v>
       </c>
       <c r="X34" t="n">
-        <v>1170.979132919728</v>
+        <v>959.9969310299521</v>
       </c>
       <c r="Y34" t="n">
-        <v>950.1865537761984</v>
+        <v>739.2043518864219</v>
       </c>
     </row>
     <row r="35">
@@ -6931,19 +6931,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6955,10 +6955,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2410.714175003133</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2410.714175003133</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2191.112710026075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7165,7 +7165,7 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7265,13 +7265,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>835.5837926935558</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1017.232257523796</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,31 +7399,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>869.6905094135296</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>700.7543264856228</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>550.637687073287</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.461080510508</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.776592304621</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.359422267661</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>1272.131553387299</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>1051.338974243769</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,13 +8537,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>337.5639548971532</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>176.8008973295432</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>250.2980548978878</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>226.4057028288546</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>55.21102825632963</v>
       </c>
       <c r="U16" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>122.8084169651565</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>106.0713126946649</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>137.2878198583898</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>25.21666309130988</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>31.77834493961043</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>43.26526345294974</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>30.48882721876579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>115.0314858713397</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>66.09406519747952</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>852383.4813946052</v>
+        <v>852383.4813946051</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>852383.481394605</v>
+        <v>852383.4813946051</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>852383.481394605</v>
+        <v>852383.4813946051</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>852383.4813946051</v>
+        <v>852383.481394605</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>852383.4813946051</v>
+        <v>852383.4813946049</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>852383.4813946051</v>
+        <v>852383.481394605</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>852383.4813946052</v>
+        <v>852383.481394605</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>852383.4813946051</v>
+        <v>852383.481394605</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>852383.481394605</v>
+        <v>852383.4813946052</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.238904999</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049989</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="F2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="G2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="H2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="I2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="J2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="K2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="L2" t="n">
         <v>565002.6197830043</v>
       </c>
-      <c r="H2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="I2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>565002.6197830043</v>
       </c>
-      <c r="K2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="L2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="M2" t="n">
-        <v>565002.6197830045</v>
-      </c>
       <c r="N2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="O2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830046</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808065</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080583</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
         <v>5677.536566682745</v>
@@ -26435,13 +26435,13 @@
         <v>5677.536566682745</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="I4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="K4" t="n">
         <v>5677.536566682745</v>
@@ -26453,10 +26453,10 @@
         <v>5677.536566682744</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="P4" t="n">
         <v>5677.536566682744</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-308020.1338359884</v>
+        <v>-308020.1338359886</v>
       </c>
       <c r="C6" t="n">
         <v>281947.7453785561</v>
       </c>
       <c r="D6" t="n">
-        <v>126143.9392847608</v>
+        <v>126143.9392847607</v>
       </c>
       <c r="E6" t="n">
-        <v>-313197.5172427487</v>
+        <v>-312884.8759138276</v>
       </c>
       <c r="F6" t="n">
-        <v>457855.1741380579</v>
+        <v>458167.8154669789</v>
       </c>
       <c r="G6" t="n">
-        <v>457855.1741380575</v>
+        <v>458167.8154669788</v>
       </c>
       <c r="H6" t="n">
-        <v>457855.1741380577</v>
+        <v>458167.8154669788</v>
       </c>
       <c r="I6" t="n">
-        <v>457855.1741380576</v>
+        <v>458167.8154669789</v>
       </c>
       <c r="J6" t="n">
-        <v>281431.9549454644</v>
+        <v>281744.5962743859</v>
       </c>
       <c r="K6" t="n">
-        <v>457855.1741380577</v>
+        <v>458167.8154669788</v>
       </c>
       <c r="L6" t="n">
-        <v>457855.1741380577</v>
+        <v>458167.8154669787</v>
       </c>
       <c r="M6" t="n">
-        <v>333646.6634299993</v>
+        <v>333959.3047589202</v>
       </c>
       <c r="N6" t="n">
-        <v>457855.1741380577</v>
+        <v>458167.8154669787</v>
       </c>
       <c r="O6" t="n">
-        <v>457855.1741380576</v>
+        <v>458167.8154669788</v>
       </c>
       <c r="P6" t="n">
-        <v>457855.1741380577</v>
+        <v>458167.8154669791</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>99.10841501723553</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>99.10841501723583</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>111.9799311553899</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.74592769735757</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>120.5017245654296</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>120.5017245654297</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>121.1759716783079</v>
+        <v>142.3733153354938</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>60.68140124480941</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>17.69584188176898</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>96.48721104172748</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,22 +31843,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>390.1398273256871</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32086,13 +32086,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32317,7 +32317,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32563,10 +32563,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -33037,10 +33037,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33985,16 +33985,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34222,10 +34222,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34459,13 +34459,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>463.9598929192557</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181306</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
         <v>297.223041434342</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35257,13 +35257,13 @@
         <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
-        <v>476.1797104685612</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>377.4642727362752</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35272,7 +35272,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,19 +35494,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35734,13 +35734,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35901,13 +35901,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36126,7 +36126,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M20" t="n">
         <v>735.3001107902948</v>
@@ -36211,10 +36211,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36685,10 +36685,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,7 +37153,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,7 +37162,7 @@
         <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37305,7 +37305,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37633,16 +37633,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37870,10 +37870,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38028,7 +38028,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O44" t="n">
         <v>696.488651224316</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38107,13 +38107,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>332.6181808359224</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
